--- a/score/score.xlsx
+++ b/score/score.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -346,13 +346,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" width="20.88671875"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -412,6 +415,118 @@
       </c>
       <c r="F2" t="n">
         <v>0.9043741269502097</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3LQ8PUHQFLR0A5T6M4ZM611A12WIHZ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>What does salting food do to it?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Preserves It</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3LQ8PUHQFLR0A5T6M4ZM611A12WIHZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>What does salting food do to it?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Preserves It</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3LQ8PUHQFLR0A5T6M4ZM611A12WIHZ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>What does salting food do to it?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Preserves It</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3NJM2BJS4W51AJ5UD7B54756AQUCP8</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Food spoilage can be prevented by?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dehydrating Food</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9440292060889821</v>
       </c>
     </row>
   </sheetData>

--- a/score/score.xlsx
+++ b/score/score.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -527,6 +527,176 @@
       </c>
       <c r="F6" t="n">
         <v>0.9440292060889821</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3KGTPGBS6XK146LOX0LT20JJCMAU2W</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>what can shells protect?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Soft Bodies</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9583170055652057</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3KGTPGBS6XK146LOX0LT20JJCMAU2W</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>what can shell protect?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Soft Bodies</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.917362281571686</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3KGTPGBS6XK146LOX0LT20JJCMAU2W</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>what can shell protect?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Soft Bodies</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.917362281571686</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>what protects the shell?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Below 85 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3KGTPGBS6XK146LOX0LT20JJCMAU2W</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>what protects the shells?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Soft Bodies</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8804554969598012</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3KGTPGBS6XK146LOX0LT20JJCMAU2W</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>what can shells protect?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Soft Bodies</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9583170055652057</v>
       </c>
     </row>
   </sheetData>

--- a/score/score.xlsx
+++ b/score/score.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -697,6 +697,90 @@
       </c>
       <c r="F12" t="n">
         <v>0.9583170055652057</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3SNLUL3WO4M75S7W763YHWISE1MULW</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>what can cause rocks?</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9436864426815139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3SNLUL3WO4M75S7W763YHWISE1MULW</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>What can cause rocks to break down?</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3EJPLAJKEMF686YZQPW495FAQR36ZM</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>What occurs when rocks are weathered mechanically?</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
